--- a/documents/汽车维修保养管理系统功能列表.xlsx
+++ b/documents/汽车维修保养管理系统功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>角色分析</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>车主</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>公司人事管理</t>
   </si>
   <si>
     <t>页面分析</t>
@@ -744,10 +750,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -783,6 +789,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -805,6 +818,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -812,7 +832,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,7 +840,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,41 +862,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,14 +886,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,13 +931,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -935,43 +941,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,13 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1043,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,85 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,67 +1144,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,9 +1170,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,145 +1240,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1780,16 +1786,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.25" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -1864,88 +1870,88 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -1953,15 +1959,15 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1969,7 +1975,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1977,7 +1983,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1985,10 +1991,10 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -1996,12 +2002,12 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -2009,7 +2015,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -2017,23 +2023,23 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -2041,7 +2047,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -2049,23 +2055,23 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2081,31 +2087,31 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>6</v>
@@ -2113,10 +2119,10 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -2124,12 +2130,12 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>6</v>
@@ -2145,23 +2151,23 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
@@ -2169,7 +2175,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
@@ -2177,53 +2183,53 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>6</v>
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="3" t="s">
-        <v>62</v>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>6</v>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>6</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>6</v>
@@ -2247,10 +2253,10 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -2258,58 +2264,58 @@
         <v>67</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" ht="40.5" spans="2:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
+    </row>
+    <row r="66" ht="43.2" spans="2:3">
       <c r="B66" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
+    <row r="67" spans="2:3">
+      <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="C67" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
+      <c r="D70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>6</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>6</v>
@@ -2325,7 +2331,7 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>6</v>
@@ -2333,7 +2339,7 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>6</v>
@@ -2341,7 +2347,7 @@
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>6</v>
@@ -2349,7 +2355,7 @@
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>6</v>
@@ -2357,7 +2363,7 @@
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>6</v>
@@ -2365,10 +2371,10 @@
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -2376,98 +2382,95 @@
         <v>83</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" ht="27" spans="2:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" ht="27" spans="2:3">
+      <c r="C82" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" ht="28.8" spans="2:3">
       <c r="B83" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" ht="27" spans="2:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" ht="28.8" spans="2:3">
       <c r="B84" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" ht="27" spans="2:3">
+    </row>
+    <row r="85" ht="28.8" spans="2:3">
       <c r="B85" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+    </row>
+    <row r="86" ht="28.8" spans="2:3">
+      <c r="B86" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="B89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="D89" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="6"/>
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>6</v>
@@ -2478,7 +2481,7 @@
     <row r="91" spans="1:5">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>6</v>
@@ -2489,7 +2492,7 @@
     <row r="92" spans="1:5">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>6</v>
@@ -2500,10 +2503,10 @@
     <row r="93" spans="1:5">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -2511,10 +2514,10 @@
     <row r="94" spans="1:5">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -2522,10 +2525,10 @@
     <row r="95" spans="1:5">
       <c r="A95" s="6"/>
       <c r="B95" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -2533,10 +2536,10 @@
     <row r="96" spans="1:5">
       <c r="A96" s="6"/>
       <c r="B96" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -2544,10 +2547,10 @@
     <row r="97" spans="1:5">
       <c r="A97" s="6"/>
       <c r="B97" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -2555,10 +2558,10 @@
     <row r="98" spans="1:5">
       <c r="A98" s="6"/>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -2566,10 +2569,10 @@
     <row r="99" spans="1:5">
       <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -2577,10 +2580,10 @@
     <row r="100" spans="1:5">
       <c r="A100" s="6"/>
       <c r="B100" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -2588,10 +2591,10 @@
     <row r="101" spans="1:5">
       <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -2602,7 +2605,7 @@
         <v>107</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -2610,10 +2613,10 @@
     <row r="103" spans="1:5">
       <c r="A103" s="6"/>
       <c r="B103" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -2621,53 +2624,56 @@
     <row r="104" spans="1:5">
       <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" ht="40.5" spans="1:5">
+    <row r="105" spans="1:5">
       <c r="A105" s="6"/>
       <c r="B105" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" s="7" t="s">
         <v>111</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+    <row r="106" ht="43.2" spans="1:5">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="8" t="s">
+      <c r="C106" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="8" t="s">
+      <c r="B109" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>114</v>
+      <c r="D109" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="2:3">
@@ -2675,47 +2681,47 @@
         <v>115</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="2:3">
@@ -2723,57 +2729,54 @@
         <v>122</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="1:6">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="1:1">
-      <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" spans="1:5">
-      <c r="A119" s="8" t="s">
+    <row r="117" spans="2:3">
+      <c r="B117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:6">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:5">
+      <c r="A120" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="8" t="s">
+      <c r="B120" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" ht="54" spans="1:5">
-      <c r="A120" s="6"/>
-      <c r="B120" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="D120" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" ht="43.2" spans="1:5">
       <c r="A121" s="6"/>
       <c r="B121" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>114</v>
+      <c r="C121" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -2781,32 +2784,32 @@
     <row r="122" spans="1:5">
       <c r="A122" s="6"/>
       <c r="B122" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" ht="40.5" spans="1:5">
+    <row r="123" spans="1:5">
       <c r="A123" s="6"/>
       <c r="B123" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C123" s="7" t="s">
         <v>129</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" ht="43.2" spans="1:5">
       <c r="A124" s="6"/>
       <c r="B124" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>114</v>
+      <c r="C124" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -2814,26 +2817,26 @@
     <row r="125" spans="1:5">
       <c r="A125" s="6"/>
       <c r="B125" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" ht="27" spans="1:5">
+    <row r="126" spans="1:5">
       <c r="A126" s="6"/>
       <c r="B126" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C126" s="7" t="s">
         <v>133</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" ht="27" spans="1:5">
+    <row r="127" ht="28.8" spans="1:5">
       <c r="A127" s="6"/>
       <c r="B127" s="9" t="s">
         <v>134</v>
@@ -2844,13 +2847,13 @@
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" ht="28.8" spans="1:5">
       <c r="A128" s="6"/>
       <c r="B128" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
@@ -2858,10 +2861,10 @@
     <row r="129" spans="1:5">
       <c r="A129" s="6"/>
       <c r="B129" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -2869,114 +2872,116 @@
     <row r="130" spans="1:5">
       <c r="A130" s="6"/>
       <c r="B130" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>15</v>
+        <v>139</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" ht="27" spans="1:5">
+    <row r="131" spans="1:5">
       <c r="A131" s="6"/>
       <c r="B131" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C131" s="7" t="s">
         <v>140</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" customFormat="1" spans="1:6">
-      <c r="A132" s="1" t="s">
+    <row r="132" ht="28.8" spans="1:5">
+      <c r="A132" s="6"/>
+      <c r="B132" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F132" s="10"/>
+      <c r="C132" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" customFormat="1" spans="1:6">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" customFormat="1" spans="1:6">
+      <c r="A134" t="s">
         <v>1</v>
       </c>
-      <c r="B133" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" t="s">
         <v>3</v>
       </c>
-      <c r="D133" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" t="s">
-        <v>24</v>
-      </c>
-      <c r="F133" s="10"/>
-    </row>
-    <row r="134" customFormat="1" spans="2:6">
-      <c r="B134" t="s">
-        <v>142</v>
-      </c>
-      <c r="C134" t="s">
-        <v>143</v>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>26</v>
       </c>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" customFormat="1" spans="2:3">
-      <c r="B135" s="11" t="s">
+    <row r="135" customFormat="1" spans="2:6">
+      <c r="B135" t="s">
         <v>144</v>
       </c>
       <c r="C135" t="s">
         <v>145</v>
       </c>
+      <c r="F135" s="10"/>
     </row>
     <row r="136" customFormat="1" spans="2:3">
-      <c r="B136" t="s">
+      <c r="B136" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="2:3">
       <c r="B137" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="2:3">
+      <c r="B138" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" t="s">
         <v>147</v>
       </c>
-      <c r="C137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" ht="40.5" spans="2:5">
-      <c r="B141" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" spans="2:5">
+      <c r="D141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" ht="43.2" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>151</v>
       </c>
@@ -2989,89 +2994,87 @@
       <c r="B143" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>152</v>
+      <c r="C143" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="5:5">
+    <row r="144" spans="2:5">
+      <c r="B144" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+    <row r="145" spans="5:5">
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="8"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
+      <c r="E148" s="8"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C150" s="12" t="s">
+      <c r="B151" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D150" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="D151" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="12"/>
       <c r="B152" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
@@ -3079,10 +3082,10 @@
     <row r="153" spans="1:5">
       <c r="A153" s="12"/>
       <c r="B153" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
@@ -3093,29 +3096,29 @@
         <v>161</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
     </row>
-    <row r="155" ht="27" spans="1:5">
+    <row r="155" spans="1:5">
       <c r="A155" s="12"/>
       <c r="B155" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C155" s="13" t="s">
         <v>163</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" ht="28.8" spans="1:5">
       <c r="A156" s="12"/>
       <c r="B156" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C156" s="12" t="s">
-        <v>114</v>
+      <c r="C156" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
@@ -3123,61 +3126,64 @@
     <row r="157" spans="1:5">
       <c r="A157" s="12"/>
       <c r="B157" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
     </row>
-    <row r="159" s="1" customFormat="1" spans="1:1">
-      <c r="A159" s="1" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12" t="s">
         <v>167</v>
       </c>
+      <c r="C158" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="160" s="1" customFormat="1" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="1" spans="1:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" spans="1:1">
       <c r="A161" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:5">
+      <c r="A162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="B162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="1" spans="2:5">
-      <c r="B162" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>121</v>
+      <c r="D162" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="163" s="2" customFormat="1" ht="27" spans="2:3">
-      <c r="B163" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="2:5">
+      <c r="B163" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C163" s="14" t="s">
+      <c r="C163" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" ht="27" spans="2:3">
+    <row r="164" s="2" customFormat="1" ht="28.8" spans="2:3">
       <c r="B164" s="5" t="s">
         <v>173</v>
       </c>
@@ -3185,15 +3191,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="165" s="1" customFormat="1" ht="27" spans="2:3">
-      <c r="B165" s="1" t="s">
+    <row r="165" s="2" customFormat="1" ht="28.8" spans="2:3">
+      <c r="B165" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" ht="40.5" spans="2:3">
+    <row r="166" s="1" customFormat="1" ht="28.8" spans="2:3">
       <c r="B166" s="1" t="s">
         <v>177</v>
       </c>
@@ -3201,111 +3207,111 @@
         <v>178</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" spans="2:3">
+    <row r="167" s="1" customFormat="1" ht="43.2" spans="2:3">
       <c r="B167" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>121</v>
+      <c r="C167" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" spans="2:3">
       <c r="B168" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" spans="2:3">
       <c r="B169" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="27" spans="2:3">
+    <row r="170" s="1" customFormat="1" spans="2:3">
       <c r="B170" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C170" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="171" s="1" customFormat="1" spans="2:3">
+      <c r="C170" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="28.8" spans="2:3">
       <c r="B171" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>121</v>
+      <c r="C171" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" spans="2:3">
       <c r="B172" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="2:3">
       <c r="B173" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" spans="2:3">
       <c r="B174" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="27" spans="2:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="1" spans="2:3">
       <c r="B175" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C175" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="176" s="1" customFormat="1" spans="2:2">
+      <c r="C175" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="28.8" spans="2:3">
       <c r="B176" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="1" t="s">
+      <c r="C176" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="177" s="1" customFormat="1" spans="2:2">
+      <c r="B177" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="B180" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3">
-      <c r="B180" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>193</v>
+      <c r="D180" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="2:3">
@@ -3313,149 +3319,146 @@
         <v>194</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="5" t="s">
-        <v>201</v>
+      <c r="B188" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="1" t="s">
-        <v>202</v>
+      <c r="B189" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" ht="14.25" spans="1:5">
-      <c r="A194" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
-    </row>
-    <row r="195" ht="14.25" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" ht="15.6" spans="1:5">
       <c r="A195" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B195" s="15"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+    </row>
+    <row r="196" ht="15.6" spans="1:5">
+      <c r="A196" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C195" s="15" t="s">
+      <c r="B196" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D195" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E195" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" ht="28.5" spans="1:5">
-      <c r="A196" s="15"/>
-      <c r="B196" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C196" s="16" t="s">
+      <c r="D196" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-    </row>
-    <row r="197" ht="14.25" spans="1:5">
+      <c r="E196" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" ht="31.2" spans="1:5">
       <c r="A197" s="15"/>
       <c r="B197" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C197" s="15" t="s">
-        <v>6</v>
+      <c r="C197" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
     </row>
-    <row r="198" ht="14.25" spans="1:5">
+    <row r="198" ht="15.6" spans="1:5">
       <c r="A198" s="15"/>
       <c r="B198" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>6</v>
@@ -3463,10 +3466,10 @@
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
     </row>
-    <row r="199" ht="14.25" spans="1:5">
+    <row r="199" ht="15.6" spans="1:5">
       <c r="A199" s="15"/>
       <c r="B199" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C199" s="15" t="s">
         <v>6</v>
@@ -3474,10 +3477,10 @@
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
     </row>
-    <row r="200" ht="14.25" spans="1:5">
+    <row r="200" ht="15.6" spans="1:5">
       <c r="A200" s="15"/>
       <c r="B200" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C200" s="15" t="s">
         <v>6</v>
@@ -3485,10 +3488,10 @@
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
     </row>
-    <row r="201" ht="14.25" spans="1:5">
+    <row r="201" ht="15.6" spans="1:5">
       <c r="A201" s="15"/>
       <c r="B201" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C201" s="15" t="s">
         <v>6</v>
@@ -3496,10 +3499,10 @@
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
     </row>
-    <row r="202" ht="14.25" spans="1:5">
+    <row r="202" ht="15.6" spans="1:5">
       <c r="A202" s="15"/>
       <c r="B202" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C202" s="15" t="s">
         <v>6</v>
@@ -3507,39 +3510,42 @@
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+    <row r="203" ht="15.6" spans="1:5">
+      <c r="A203" s="15"/>
+      <c r="B203" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+    </row>
+    <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C205" s="1" t="s">
+      <c r="B206" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3">
-      <c r="B206" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>4</v>
+      <c r="D206" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>4</v>
@@ -3547,7 +3553,7 @@
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>4</v>
@@ -3555,7 +3561,7 @@
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>4</v>
@@ -3563,7 +3569,7 @@
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
@@ -3571,7 +3577,7 @@
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>4</v>
@@ -3579,7 +3585,7 @@
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>4</v>
@@ -3587,7 +3593,7 @@
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>4</v>
@@ -3595,7 +3601,7 @@
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>4</v>
@@ -3603,7 +3609,7 @@
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>4</v>
@@ -3611,7 +3617,7 @@
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>4</v>
@@ -3619,7 +3625,7 @@
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>4</v>
@@ -3627,7 +3633,7 @@
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>4</v>
@@ -3635,7 +3641,7 @@
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>4</v>
@@ -3643,7 +3649,7 @@
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>4</v>
@@ -3651,15 +3657,23 @@
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26 E27 E28 E134 E163 JA163 SW163 ACS163 AMO163 AWK163 BGG163 BQC163 BZY163 CJU163 CTQ163 DDM163 DNI163 DXE163 EHA163 EQW163 FAS163 FKO163 FUK163 GEG163 GOC163 GXY163 HHU163 HRQ163 IBM163 ILI163 IVE163 JFA163 JOW163 JYS163 KIO163 KSK163 LCG163 LMC163 LVY163 MFU163 MPQ163 MZM163 NJI163 NTE163 ODA163 OMW163 OWS163 PGO163 PQK163 QAG163 QKC163 QTY163 RDU163 RNQ163 RXM163 SHI163 SRE163 TBA163 TKW163 TUS163 UEO163 UOK163 UYG163 VIC163 VRY163 WBU163 WLQ163 WVM163 E164 JA164 SW164 ACS164 AMO164 AWK164 BGG164 BQC164 BZY164 CJU164 CTQ164 DDM164 DNI164 DXE164 EHA164 EQW164 FAS164 FKO164 FUK164 GEG164 GOC164 GXY164 HHU164 HRQ164 IBM164 ILI164 IVE164 JFA164 JOW164 JYS164 KIO164 KSK164 LCG164 LMC164 LVY164 MFU164 MPQ164 MZM164 NJI164 NTE164 ODA164 OMW164 OWS164 PGO164 PQK164 QAG164 QKC164 QTY164 RDU164 RNQ164 RXM164 SHI164 SRE164 TBA164 TKW164 TUS164 UEO164 UOK164 UYG164 VIC164 VRY164 WBU164 WLQ164 WVM164 E165 JA165 SW165 ACS165 AMO165 AWK165 BGG165 BQC165 BZY165 CJU165 CTQ165 DDM165 DNI165 DXE165 EHA165 EQW165 FAS165 FKO165 FUK165 GEG165 GOC165 GXY165 HHU165 HRQ165 IBM165 ILI165 IVE165 JFA165 JOW165 JYS165 KIO165 KSK165 LCG165 LMC165 LVY165 MFU165 MPQ165 MZM165 NJI165 NTE165 ODA165 OMW165 OWS165 PGO165 PQK165 QAG165 QKC165 QTY165 RDU165 RNQ165 RXM165 SHI165 SRE165 TBA165 TKW165 TUS165 UEO165 UOK165 UYG165 VIC165 VRY165 WBU165 WLQ165 WVM165 E166 JA166 SW166 ACS166 AMO166 AWK166 BGG166 BQC166 BZY166 CJU166 CTQ166 DDM166 DNI166 DXE166 EHA166 EQW166 FAS166 FKO166 FUK166 GEG166 GOC166 GXY166 HHU166 HRQ166 IBM166 ILI166 IVE166 JFA166 JOW166 JYS166 KIO166 KSK166 LCG166 LMC166 LVY166 MFU166 MPQ166 MZM166 NJI166 NTE166 ODA166 OMW166 OWS166 PGO166 PQK166 QAG166 QKC166 QTY166 RDU166 RNQ166 RXM166 SHI166 SRE166 TBA166 TKW166 TUS166 UEO166 UOK166 UYG166 VIC166 VRY166 WBU166 WLQ166 WVM166 E167 JA167 SW167 ACS167 AMO167 AWK167 BGG167 BQC167 BZY167 CJU167 CTQ167 DDM167 DNI167 DXE167 EHA167 EQW167 FAS167 FKO167 FUK167 GEG167 GOC167 GXY167 HHU167 HRQ167 IBM167 ILI167 IVE167 JFA167 JOW167 JYS167 KIO167 KSK167 LCG167 LMC167 LVY167 MFU167 MPQ167 MZM167 NJI167 NTE167 ODA167 OMW167 OWS167 PGO167 PQK167 QAG167 QKC167 QTY167 RDU167 RNQ167 RXM167 SHI167 SRE167 TBA167 TKW167 TUS167 UEO167 UOK167 UYG167 VIC167 VRY167 WBU167 WLQ167 WVM167 E168 JA168 SW168 ACS168 AMO168 AWK168 BGG168 BQC168 BZY168 CJU168 CTQ168 DDM168 DNI168 DXE168 EHA168 EQW168 FAS168 FKO168 FUK168 GEG168 GOC168 GXY168 HHU168 HRQ168 IBM168 ILI168 IVE168 JFA168 JOW168 JYS168 KIO168 KSK168 LCG168 LMC168 LVY168 MFU168 MPQ168 MZM168 NJI168 NTE168 ODA168 OMW168 OWS168 PGO168 PQK168 QAG168 QKC168 QTY168 RDU168 RNQ168 RXM168 SHI168 SRE168 TBA168 TKW168 TUS168 UEO168 UOK168 UYG168 VIC168 VRY168 WBU168 WLQ168 WVM168 E169 JA169 SW169 ACS169 AMO169 AWK169 BGG169 BQC169 BZY169 CJU169 CTQ169 DDM169 DNI169 DXE169 EHA169 EQW169 FAS169 FKO169 FUK169 GEG169 GOC169 GXY169 HHU169 HRQ169 IBM169 ILI169 IVE169 JFA169 JOW169 JYS169 KIO169 KSK169 LCG169 LMC169 LVY169 MFU169 MPQ169 MZM169 NJI169 NTE169 ODA169 OMW169 OWS169 PGO169 PQK169 QAG169 QKC169 QTY169 RDU169 RNQ169 RXM169 SHI169 SRE169 TBA169 TKW169 TUS169 UEO169 UOK169 UYG169 VIC169 VRY169 WBU169 WLQ169 WVM169 E170 JA170 SW170 ACS170 AMO170 AWK170 BGG170 BQC170 BZY170 CJU170 CTQ170 DDM170 DNI170 DXE170 EHA170 EQW170 FAS170 FKO170 FUK170 GEG170 GOC170 GXY170 HHU170 HRQ170 IBM170 ILI170 IVE170 JFA170 JOW170 JYS170 KIO170 KSK170 LCG170 LMC170 LVY170 MFU170 MPQ170 MZM170 NJI170 NTE170 ODA170 OMW170 OWS170 PGO170 PQK170 QAG170 QKC170 QTY170 RDU170 RNQ170 RXM170 SHI170 SRE170 TBA170 TKW170 TUS170 UEO170 UOK170 UYG170 VIC170 VRY170 WBU170 WLQ170 WVM170 E171 JA171 SW171 ACS171 AMO171 AWK171 BGG171 BQC171 BZY171 CJU171 CTQ171 DDM171 DNI171 DXE171 EHA171 EQW171 FAS171 FKO171 FUK171 GEG171 GOC171 GXY171 HHU171 HRQ171 IBM171 ILI171 IVE171 JFA171 JOW171 JYS171 KIO171 KSK171 LCG171 LMC171 LVY171 MFU171 MPQ171 MZM171 NJI171 NTE171 ODA171 OMW171 OWS171 PGO171 PQK171 QAG171 QKC171 QTY171 RDU171 RNQ171 RXM171 SHI171 SRE171 TBA171 TKW171 TUS171 UEO171 UOK171 UYG171 VIC171 VRY171 WBU171 WLQ171 WVM171 E172 JA172 SW172 ACS172 AMO172 AWK172 BGG172 BQC172 BZY172 CJU172 CTQ172 DDM172 DNI172 DXE172 EHA172 EQW172 FAS172 FKO172 FUK172 GEG172 GOC172 GXY172 HHU172 HRQ172 IBM172 ILI172 IVE172 JFA172 JOW172 JYS172 KIO172 KSK172 LCG172 LMC172 LVY172 MFU172 MPQ172 MZM172 NJI172 NTE172 ODA172 OMW172 OWS172 PGO172 PQK172 QAG172 QKC172 QTY172 RDU172 RNQ172 RXM172 SHI172 SRE172 TBA172 TKW172 TUS172 UEO172 UOK172 UYG172 VIC172 VRY172 WBU172 WLQ172 WVM172 E173 JA173 SW173 ACS173 AMO173 AWK173 BGG173 BQC173 BZY173 CJU173 CTQ173 DDM173 DNI173 DXE173 EHA173 EQW173 FAS173 FKO173 FUK173 GEG173 GOC173 GXY173 HHU173 HRQ173 IBM173 ILI173 IVE173 JFA173 JOW173 JYS173 KIO173 KSK173 LCG173 LMC173 LVY173 MFU173 MPQ173 MZM173 NJI173 NTE173 ODA173 OMW173 OWS173 PGO173 PQK173 QAG173 QKC173 QTY173 RDU173 RNQ173 RXM173 SHI173 SRE173 TBA173 TKW173 TUS173 UEO173 UOK173 UYG173 VIC173 VRY173 WBU173 WLQ173 WVM173 E174 JA174 SW174 ACS174 AMO174 AWK174 BGG174 BQC174 BZY174 CJU174 CTQ174 DDM174 DNI174 DXE174 EHA174 EQW174 FAS174 FKO174 FUK174 GEG174 GOC174 GXY174 HHU174 HRQ174 IBM174 ILI174 IVE174 JFA174 JOW174 JYS174 KIO174 KSK174 LCG174 LMC174 LVY174 MFU174 MPQ174 MZM174 NJI174 NTE174 ODA174 OMW174 OWS174 PGO174 PQK174 QAG174 QKC174 QTY174 RDU174 RNQ174 RXM174 SHI174 SRE174 TBA174 TKW174 TUS174 UEO174 UOK174 UYG174 VIC174 VRY174 WBU174 WLQ174 WVM174 D175 IZ175 SV175 ACR175 AMN175 AWJ175 BGF175 BQB175 BZX175 CJT175 CTP175 DDL175 DNH175 DXD175 EGZ175 EQV175 FAR175 FKN175 FUJ175 GEF175 GOB175 GXX175 HHT175 HRP175 IBL175 ILH175 IVD175 JEZ175 JOV175 JYR175 KIN175 KSJ175 LCF175 LMB175 LVX175 MFT175 MPP175 MZL175 NJH175 NTD175 OCZ175 OMV175 OWR175 PGN175 PQJ175 QAF175 QKB175 QTX175 RDT175 RNP175 RXL175 SHH175 SRD175 TAZ175 TKV175 TUR175 UEN175 UOJ175 UYF175 VIB175 VRX175 WBT175 WLP175 WVL175 E176 JA176 SW176 ACS176 AMO176 AWK176 BGG176 BQC176 BZY176 CJU176 CTQ176 DDM176 DNI176 DXE176 EHA176 EQW176 FAS176 FKO176 FUK176 GEG176 GOC176 GXY176 HHU176 HRQ176 IBM176 ILI176 IVE176 JFA176 JOW176 JYS176 KIO176 KSK176 LCG176 LMC176 LVY176 MFU176 MPQ176 MZM176 NJI176 NTE176 ODA176 OMW176 OWS176 PGO176 PQK176 QAG176 QKC176 QTY176 RDU176 RNQ176 RXM176 SHI176 SRE176 TBA176 TKW176 TUS176 UEO176 UOK176 UYG176 VIC176 VRY176 WBU176 WLQ176 WVM176 E23:E25 E159:E162 JA159:JA162 SW159:SW162 ACS159:ACS162 AMO159:AMO162 AWK159:AWK162 BGG159:BGG162 BQC159:BQC162 BZY159:BZY162 CJU159:CJU162 CTQ159:CTQ162 DDM159:DDM162 DNI159:DNI162 DXE159:DXE162 EHA159:EHA162 EQW159:EQW162 FAS159:FAS162 FKO159:FKO162 FUK159:FUK162 GEG159:GEG162 GOC159:GOC162 GXY159:GXY162 HHU159:HHU162 HRQ159:HRQ162 IBM159:IBM162 ILI159:ILI162 IVE159:IVE162 JFA159:JFA162 JOW159:JOW162 JYS159:JYS162 KIO159:KIO162 KSK159:KSK162 LCG159:LCG162 LMC159:LMC162 LVY159:LVY162 MFU159:MFU162 MPQ159:MPQ162 MZM159:MZM162 NJI159:NJI162 NTE159:NTE162 ODA159:ODA162 OMW159:OMW162 OWS159:OWS162 PGO159:PGO162 PQK159:PQK162 QAG159:QAG162 QKC159:QKC162 QTY159:QTY162 RDU159:RDU162 RNQ159:RNQ162 RXM159:RXM162 SHI159:SHI162 SRE159:SRE162 TBA159:TBA162 TKW159:TKW162 TUS159:TUS162 UEO159:UEO162 UOK159:UOK162 UYG159:UYG162 VIC159:VIC162 VRY159:VRY162 WBU159:WBU162 WLQ159:WLQ162 WVM159:WVM162">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27 E28 E29 E135 E164 JA164 SW164 ACS164 AMO164 AWK164 BGG164 BQC164 BZY164 CJU164 CTQ164 DDM164 DNI164 DXE164 EHA164 EQW164 FAS164 FKO164 FUK164 GEG164 GOC164 GXY164 HHU164 HRQ164 IBM164 ILI164 IVE164 JFA164 JOW164 JYS164 KIO164 KSK164 LCG164 LMC164 LVY164 MFU164 MPQ164 MZM164 NJI164 NTE164 ODA164 OMW164 OWS164 PGO164 PQK164 QAG164 QKC164 QTY164 RDU164 RNQ164 RXM164 SHI164 SRE164 TBA164 TKW164 TUS164 UEO164 UOK164 UYG164 VIC164 VRY164 WBU164 WLQ164 WVM164 E165 JA165 SW165 ACS165 AMO165 AWK165 BGG165 BQC165 BZY165 CJU165 CTQ165 DDM165 DNI165 DXE165 EHA165 EQW165 FAS165 FKO165 FUK165 GEG165 GOC165 GXY165 HHU165 HRQ165 IBM165 ILI165 IVE165 JFA165 JOW165 JYS165 KIO165 KSK165 LCG165 LMC165 LVY165 MFU165 MPQ165 MZM165 NJI165 NTE165 ODA165 OMW165 OWS165 PGO165 PQK165 QAG165 QKC165 QTY165 RDU165 RNQ165 RXM165 SHI165 SRE165 TBA165 TKW165 TUS165 UEO165 UOK165 UYG165 VIC165 VRY165 WBU165 WLQ165 WVM165 E166 JA166 SW166 ACS166 AMO166 AWK166 BGG166 BQC166 BZY166 CJU166 CTQ166 DDM166 DNI166 DXE166 EHA166 EQW166 FAS166 FKO166 FUK166 GEG166 GOC166 GXY166 HHU166 HRQ166 IBM166 ILI166 IVE166 JFA166 JOW166 JYS166 KIO166 KSK166 LCG166 LMC166 LVY166 MFU166 MPQ166 MZM166 NJI166 NTE166 ODA166 OMW166 OWS166 PGO166 PQK166 QAG166 QKC166 QTY166 RDU166 RNQ166 RXM166 SHI166 SRE166 TBA166 TKW166 TUS166 UEO166 UOK166 UYG166 VIC166 VRY166 WBU166 WLQ166 WVM166 E167 JA167 SW167 ACS167 AMO167 AWK167 BGG167 BQC167 BZY167 CJU167 CTQ167 DDM167 DNI167 DXE167 EHA167 EQW167 FAS167 FKO167 FUK167 GEG167 GOC167 GXY167 HHU167 HRQ167 IBM167 ILI167 IVE167 JFA167 JOW167 JYS167 KIO167 KSK167 LCG167 LMC167 LVY167 MFU167 MPQ167 MZM167 NJI167 NTE167 ODA167 OMW167 OWS167 PGO167 PQK167 QAG167 QKC167 QTY167 RDU167 RNQ167 RXM167 SHI167 SRE167 TBA167 TKW167 TUS167 UEO167 UOK167 UYG167 VIC167 VRY167 WBU167 WLQ167 WVM167 E168 JA168 SW168 ACS168 AMO168 AWK168 BGG168 BQC168 BZY168 CJU168 CTQ168 DDM168 DNI168 DXE168 EHA168 EQW168 FAS168 FKO168 FUK168 GEG168 GOC168 GXY168 HHU168 HRQ168 IBM168 ILI168 IVE168 JFA168 JOW168 JYS168 KIO168 KSK168 LCG168 LMC168 LVY168 MFU168 MPQ168 MZM168 NJI168 NTE168 ODA168 OMW168 OWS168 PGO168 PQK168 QAG168 QKC168 QTY168 RDU168 RNQ168 RXM168 SHI168 SRE168 TBA168 TKW168 TUS168 UEO168 UOK168 UYG168 VIC168 VRY168 WBU168 WLQ168 WVM168 E169 JA169 SW169 ACS169 AMO169 AWK169 BGG169 BQC169 BZY169 CJU169 CTQ169 DDM169 DNI169 DXE169 EHA169 EQW169 FAS169 FKO169 FUK169 GEG169 GOC169 GXY169 HHU169 HRQ169 IBM169 ILI169 IVE169 JFA169 JOW169 JYS169 KIO169 KSK169 LCG169 LMC169 LVY169 MFU169 MPQ169 MZM169 NJI169 NTE169 ODA169 OMW169 OWS169 PGO169 PQK169 QAG169 QKC169 QTY169 RDU169 RNQ169 RXM169 SHI169 SRE169 TBA169 TKW169 TUS169 UEO169 UOK169 UYG169 VIC169 VRY169 WBU169 WLQ169 WVM169 E170 JA170 SW170 ACS170 AMO170 AWK170 BGG170 BQC170 BZY170 CJU170 CTQ170 DDM170 DNI170 DXE170 EHA170 EQW170 FAS170 FKO170 FUK170 GEG170 GOC170 GXY170 HHU170 HRQ170 IBM170 ILI170 IVE170 JFA170 JOW170 JYS170 KIO170 KSK170 LCG170 LMC170 LVY170 MFU170 MPQ170 MZM170 NJI170 NTE170 ODA170 OMW170 OWS170 PGO170 PQK170 QAG170 QKC170 QTY170 RDU170 RNQ170 RXM170 SHI170 SRE170 TBA170 TKW170 TUS170 UEO170 UOK170 UYG170 VIC170 VRY170 WBU170 WLQ170 WVM170 E171 JA171 SW171 ACS171 AMO171 AWK171 BGG171 BQC171 BZY171 CJU171 CTQ171 DDM171 DNI171 DXE171 EHA171 EQW171 FAS171 FKO171 FUK171 GEG171 GOC171 GXY171 HHU171 HRQ171 IBM171 ILI171 IVE171 JFA171 JOW171 JYS171 KIO171 KSK171 LCG171 LMC171 LVY171 MFU171 MPQ171 MZM171 NJI171 NTE171 ODA171 OMW171 OWS171 PGO171 PQK171 QAG171 QKC171 QTY171 RDU171 RNQ171 RXM171 SHI171 SRE171 TBA171 TKW171 TUS171 UEO171 UOK171 UYG171 VIC171 VRY171 WBU171 WLQ171 WVM171 E172 JA172 SW172 ACS172 AMO172 AWK172 BGG172 BQC172 BZY172 CJU172 CTQ172 DDM172 DNI172 DXE172 EHA172 EQW172 FAS172 FKO172 FUK172 GEG172 GOC172 GXY172 HHU172 HRQ172 IBM172 ILI172 IVE172 JFA172 JOW172 JYS172 KIO172 KSK172 LCG172 LMC172 LVY172 MFU172 MPQ172 MZM172 NJI172 NTE172 ODA172 OMW172 OWS172 PGO172 PQK172 QAG172 QKC172 QTY172 RDU172 RNQ172 RXM172 SHI172 SRE172 TBA172 TKW172 TUS172 UEO172 UOK172 UYG172 VIC172 VRY172 WBU172 WLQ172 WVM172 E173 JA173 SW173 ACS173 AMO173 AWK173 BGG173 BQC173 BZY173 CJU173 CTQ173 DDM173 DNI173 DXE173 EHA173 EQW173 FAS173 FKO173 FUK173 GEG173 GOC173 GXY173 HHU173 HRQ173 IBM173 ILI173 IVE173 JFA173 JOW173 JYS173 KIO173 KSK173 LCG173 LMC173 LVY173 MFU173 MPQ173 MZM173 NJI173 NTE173 ODA173 OMW173 OWS173 PGO173 PQK173 QAG173 QKC173 QTY173 RDU173 RNQ173 RXM173 SHI173 SRE173 TBA173 TKW173 TUS173 UEO173 UOK173 UYG173 VIC173 VRY173 WBU173 WLQ173 WVM173 E174 JA174 SW174 ACS174 AMO174 AWK174 BGG174 BQC174 BZY174 CJU174 CTQ174 DDM174 DNI174 DXE174 EHA174 EQW174 FAS174 FKO174 FUK174 GEG174 GOC174 GXY174 HHU174 HRQ174 IBM174 ILI174 IVE174 JFA174 JOW174 JYS174 KIO174 KSK174 LCG174 LMC174 LVY174 MFU174 MPQ174 MZM174 NJI174 NTE174 ODA174 OMW174 OWS174 PGO174 PQK174 QAG174 QKC174 QTY174 RDU174 RNQ174 RXM174 SHI174 SRE174 TBA174 TKW174 TUS174 UEO174 UOK174 UYG174 VIC174 VRY174 WBU174 WLQ174 WVM174 E175 JA175 SW175 ACS175 AMO175 AWK175 BGG175 BQC175 BZY175 CJU175 CTQ175 DDM175 DNI175 DXE175 EHA175 EQW175 FAS175 FKO175 FUK175 GEG175 GOC175 GXY175 HHU175 HRQ175 IBM175 ILI175 IVE175 JFA175 JOW175 JYS175 KIO175 KSK175 LCG175 LMC175 LVY175 MFU175 MPQ175 MZM175 NJI175 NTE175 ODA175 OMW175 OWS175 PGO175 PQK175 QAG175 QKC175 QTY175 RDU175 RNQ175 RXM175 SHI175 SRE175 TBA175 TKW175 TUS175 UEO175 UOK175 UYG175 VIC175 VRY175 WBU175 WLQ175 WVM175 D176 IZ176 SV176 ACR176 AMN176 AWJ176 BGF176 BQB176 BZX176 CJT176 CTP176 DDL176 DNH176 DXD176 EGZ176 EQV176 FAR176 FKN176 FUJ176 GEF176 GOB176 GXX176 HHT176 HRP176 IBL176 ILH176 IVD176 JEZ176 JOV176 JYR176 KIN176 KSJ176 LCF176 LMB176 LVX176 MFT176 MPP176 MZL176 NJH176 NTD176 OCZ176 OMV176 OWR176 PGN176 PQJ176 QAF176 QKB176 QTX176 RDT176 RNP176 RXL176 SHH176 SRD176 TAZ176 TKV176 TUR176 UEN176 UOJ176 UYF176 VIB176 VRX176 WBT176 WLP176 WVL176 E177 JA177 SW177 ACS177 AMO177 AWK177 BGG177 BQC177 BZY177 CJU177 CTQ177 DDM177 DNI177 DXE177 EHA177 EQW177 FAS177 FKO177 FUK177 GEG177 GOC177 GXY177 HHU177 HRQ177 IBM177 ILI177 IVE177 JFA177 JOW177 JYS177 KIO177 KSK177 LCG177 LMC177 LVY177 MFU177 MPQ177 MZM177 NJI177 NTE177 ODA177 OMW177 OWS177 PGO177 PQK177 QAG177 QKC177 QTY177 RDU177 RNQ177 RXM177 SHI177 SRE177 TBA177 TKW177 TUS177 UEO177 UOK177 UYG177 VIC177 VRY177 WBU177 WLQ177 WVM177 E24:E26 E160:E163 JA160:JA163 SW160:SW163 ACS160:ACS163 AMO160:AMO163 AWK160:AWK163 BGG160:BGG163 BQC160:BQC163 BZY160:BZY163 CJU160:CJU163 CTQ160:CTQ163 DDM160:DDM163 DNI160:DNI163 DXE160:DXE163 EHA160:EHA163 EQW160:EQW163 FAS160:FAS163 FKO160:FKO163 FUK160:FUK163 GEG160:GEG163 GOC160:GOC163 GXY160:GXY163 HHU160:HHU163 HRQ160:HRQ163 IBM160:IBM163 ILI160:ILI163 IVE160:IVE163 JFA160:JFA163 JOW160:JOW163 JYS160:JYS163 KIO160:KIO163 KSK160:KSK163 LCG160:LCG163 LMC160:LMC163 LVY160:LVY163 MFU160:MFU163 MPQ160:MPQ163 MZM160:MZM163 NJI160:NJI163 NTE160:NTE163 ODA160:ODA163 OMW160:OMW163 OWS160:OWS163 PGO160:PGO163 PQK160:PQK163 QAG160:QAG163 QKC160:QKC163 QTY160:QTY163 RDU160:RDU163 RNQ160:RNQ163 RXM160:RXM163 SHI160:SHI163 SRE160:SRE163 TBA160:TBA163 TKW160:TKW163 TUS160:TUS163 UEO160:UEO163 UOK160:UOK163 UYG160:UYG163 VIC160:VIC163 VRY160:VRY163 WBU160:WBU163 WLQ160:WLQ163 WVM160:WVM163">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3678,7 +3692,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3695,7 +3709,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/documents/汽车维修保养管理系统功能列表.xlsx
+++ b/documents/汽车维修保养管理系统功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="283">
   <si>
     <t>角色分析</t>
   </si>
@@ -418,9 +418,6 @@
 只有确认后才会生成工单</t>
   </si>
   <si>
-    <t>维修保养明细导出</t>
-  </si>
-  <si>
     <t>维修保养明细打印</t>
   </si>
   <si>
@@ -881,6 +878,70 @@
   </si>
   <si>
     <t>配件类别的条件查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约信息的条件查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员，汽修公司管理员， 汽修公司接待员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待登记的条件查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员，汽修公司管理员，汽修公司接待员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修保养几率的条件查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户签字确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印出来，由车主签字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出类型的添加</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出类型的修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出类型的状态修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出类型的分页查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入类型的添加</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入类型的修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入类型的状态修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入类型的分页查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽修公司管理员，汽修公司财务人员</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +949,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +1017,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -985,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,9 +1093,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1051,6 +1116,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1350,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1370,8 +1450,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>247</v>
+      <c r="F1" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1384,13 +1464,13 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>248</v>
+      <c r="F2" s="17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1398,18 +1478,18 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1417,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1425,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1433,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1441,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1449,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1457,23 +1537,23 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1497,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1505,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1513,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1521,7 +1601,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1533,7 +1613,7 @@
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="18"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
@@ -1551,8 +1631,8 @@
       <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
@@ -1562,19 +1642,19 @@
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" s="17" customFormat="1">
-      <c r="B26" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" s="16" customFormat="1">
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>164</v>
+      <c r="E26" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1585,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1596,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1607,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1618,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1629,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1640,7 +1720,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1651,18 +1731,18 @@
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" s="17" customFormat="1">
-      <c r="B34" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="16" customFormat="1">
+      <c r="B34" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>164</v>
+      <c r="E34" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -1673,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1684,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1695,7 +1775,7 @@
         <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1706,18 +1786,18 @@
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" s="17" customFormat="1">
-      <c r="B39" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C39" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="16" customFormat="1">
+      <c r="B39" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>164</v>
+      <c r="C39" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -1728,18 +1808,18 @@
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="17" customFormat="1">
-      <c r="B41" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="16" customFormat="1">
+      <c r="B41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>164</v>
+      <c r="E41" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -1750,7 +1830,7 @@
         <v>31</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -1761,18 +1841,18 @@
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" s="17" customFormat="1">
-      <c r="B44" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>164</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="16" customFormat="1">
+      <c r="B44" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -1783,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -1794,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -1805,7 +1885,7 @@
         <v>31</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -1816,18 +1896,18 @@
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="17" customFormat="1">
-      <c r="B49" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>164</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="16" customFormat="1">
+      <c r="B49" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1838,7 +1918,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1849,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1860,7 +1940,7 @@
         <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1871,18 +1951,18 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="17" customFormat="1">
-      <c r="B54" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>164</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="16" customFormat="1">
+      <c r="B54" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1893,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1904,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1915,7 +1995,7 @@
         <v>48</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1926,23 +2006,23 @@
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="17" customFormat="1">
-      <c r="B59" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="16" customFormat="1">
+      <c r="B59" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="18" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1958,63 +2038,63 @@
       <c r="D62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="18" t="s">
+      <c r="C64" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="16" customFormat="1">
+      <c r="B65" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="17" customFormat="1">
-      <c r="B65" s="17" t="s">
+      <c r="C65" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="B66" s="18" t="s">
+      <c r="C66" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="16" customFormat="1">
+      <c r="B67" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="17" customFormat="1">
-      <c r="B67" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>164</v>
+      <c r="C67" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2035,86 +2115,86 @@
       <c r="D72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17" t="s">
-        <v>164</v>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="17"/>
-      <c r="B74" s="19" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17" t="s">
-        <v>164</v>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="17"/>
-      <c r="B75" s="19" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17" t="s">
-        <v>164</v>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="17"/>
-      <c r="B76" s="19" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17" t="s">
-        <v>164</v>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="17"/>
-      <c r="B77" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17" t="s">
-        <v>164</v>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="17"/>
-      <c r="B78" s="19" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17" t="s">
-        <v>164</v>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2124,7 +2204,7 @@
       <c r="C79" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="17"/>
+      <c r="E79" s="16"/>
     </row>
     <row r="80" spans="1:5" ht="40.5">
       <c r="B80" s="3" t="s">
@@ -2133,7 +2213,7 @@
       <c r="C80" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="17"/>
+      <c r="E80" s="16"/>
     </row>
     <row r="81" spans="1:5">
       <c r="B81" s="3" t="s">
@@ -2142,7 +2222,7 @@
       <c r="C81" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E81" s="17"/>
+      <c r="E81" s="16"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
@@ -2174,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2185,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2196,7 +2276,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2207,18 +2287,18 @@
         <v>6</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="B89" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>265</v>
       </c>
+      <c r="C89" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2229,7 +2309,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2240,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2251,7 +2331,7 @@
         <v>6</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2262,122 +2342,122 @@
         <v>6</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C94" s="18" t="s">
-        <v>265</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17" t="s">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17" t="s">
-        <v>164</v>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17" t="s">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17" t="s">
-        <v>164</v>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17" t="s">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17" t="s">
-        <v>164</v>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17" t="s">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17" t="s">
-        <v>164</v>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="27">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17" t="s">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17" t="s">
-        <v>164</v>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="27">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17" t="s">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17" t="s">
-        <v>164</v>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="27">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17" t="s">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17" t="s">
-        <v>164</v>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="27">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17" t="s">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17" t="s">
-        <v>164</v>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2416,7 +2496,7 @@
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2429,7 +2509,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2442,7 +2522,7 @@
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2455,20 +2535,20 @@
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="6"/>
-      <c r="B110" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>250</v>
+      <c r="B110" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2643,6 +2723,9 @@
       <c r="C127" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="E127" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="B128" s="1" t="s">
@@ -2651,6 +2734,9 @@
       <c r="C128" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="E128" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="129" spans="1:6">
       <c r="B129" s="1" t="s">
@@ -2659,6 +2745,9 @@
       <c r="C129" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="E129" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="130" spans="1:6">
       <c r="B130" s="1" t="s">
@@ -2667,361 +2756,397 @@
       <c r="C130" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="B131" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>13</v>
+      <c r="E130" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="16" customFormat="1">
+      <c r="B131" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="B133" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="B134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="B135" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:6" customFormat="1">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="8" t="s">
+    <row r="138" spans="1:6">
+      <c r="A138" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B138" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C138" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D138" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E138" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="40.5">
-      <c r="A138" s="6"/>
-      <c r="B138" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-    </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="40.5">
       <c r="A139" s="6"/>
       <c r="B139" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="E139" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="6"/>
       <c r="B140" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-    </row>
-    <row r="141" spans="1:6" ht="40.5">
+      <c r="E140" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="6"/>
       <c r="B141" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="E141" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="6"/>
-      <c r="B142" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>108</v>
+      <c r="B142" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="6"/>
-      <c r="B143" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>108</v>
+      <c r="B143" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-    </row>
-    <row r="144" spans="1:6" ht="27">
+      <c r="E143" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="40.5">
       <c r="A144" s="6"/>
       <c r="B144" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-    </row>
-    <row r="145" spans="1:6" ht="27">
+      <c r="E144" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="6"/>
       <c r="B145" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="E145" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="6"/>
       <c r="B146" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C146" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="E146" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="27">
       <c r="A147" s="6"/>
       <c r="B147" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="E147" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="27">
       <c r="A148" s="6"/>
       <c r="B148" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>13</v>
+        <v>128</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-    </row>
-    <row r="149" spans="1:6" ht="27">
+      <c r="E148" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="6"/>
       <c r="B149" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="16" customFormat="1">
+      <c r="A150" s="22"/>
+      <c r="B150" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="27">
+      <c r="A151" s="6"/>
+      <c r="B151" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="D151" s="6"/>
+      <c r="E151" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="6"/>
+      <c r="B152" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="6"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="1:6" customFormat="1">
+      <c r="A154" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="1" t="s">
+      <c r="F154" s="10"/>
+    </row>
+    <row r="155" spans="1:6" customFormat="1">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="10"/>
+    </row>
+    <row r="156" spans="1:6" customFormat="1">
+      <c r="B156" t="s">
         <v>135</v>
       </c>
-      <c r="F150" s="10"/>
-    </row>
-    <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" t="s">
+      <c r="C156" t="s">
+        <v>136</v>
+      </c>
+      <c r="F156" s="10"/>
+    </row>
+    <row r="157" spans="1:6" customFormat="1">
+      <c r="B157" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" customFormat="1">
+      <c r="B158" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" customFormat="1">
+      <c r="B159" t="s">
+        <v>140</v>
+      </c>
+      <c r="C159" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B162" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D162" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E162" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F151" s="10"/>
-    </row>
-    <row r="152" spans="1:6" customFormat="1">
-      <c r="B152" t="s">
-        <v>136</v>
-      </c>
-      <c r="C152" t="s">
-        <v>137</v>
-      </c>
-      <c r="F152" s="10"/>
-    </row>
-    <row r="153" spans="1:6" customFormat="1">
-      <c r="B153" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C153" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" customFormat="1">
-      <c r="B154" t="s">
-        <v>140</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" customFormat="1">
-      <c r="B155" t="s">
-        <v>141</v>
-      </c>
-      <c r="C155" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1" t="s">
+    </row>
+    <row r="163" spans="1:5" ht="40.5">
+      <c r="B163" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="40.5">
-      <c r="B159" s="1" t="s">
+      <c r="C163" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E159" s="8"/>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="B160" s="1" t="s">
+      <c r="C164" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="B161" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E161" s="8"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="E162" s="8"/>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5">
       <c r="B165" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="E165" s="8"/>
     </row>
+    <row r="166" spans="1:5">
+      <c r="E166" s="8"/>
+    </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
+      <c r="A167" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D168" s="12" t="s">
+      <c r="D168" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -3029,187 +3154,204 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
+      <c r="B169" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="8"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="A171" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="12"/>
+      <c r="A172" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B172" s="12" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-    </row>
-    <row r="173" spans="1:5" ht="27">
+        <v>3</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="12"/>
       <c r="B173" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
+      <c r="E173" s="12" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="12"/>
       <c r="B174" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
+      <c r="E174" s="12" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="12"/>
       <c r="B175" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="16" customFormat="1" ht="27">
+      <c r="A177" s="24"/>
+      <c r="B177" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="16" customFormat="1">
+      <c r="A179" s="24"/>
+      <c r="B179" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="D179" s="24"/>
+      <c r="E179" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="1" t="s">
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="1" t="s">
+    <row r="183" spans="1:5">
+      <c r="A183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="B184" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="B180" s="1" t="s">
+      <c r="C184" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E180" s="1" t="s">
+    </row>
+    <row r="185" spans="1:5" s="2" customFormat="1" ht="27">
+      <c r="B185" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" ht="27">
-      <c r="B181" s="5" t="s">
+      <c r="C185" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C181" s="14" t="s">
+    </row>
+    <row r="186" spans="1:5" s="2" customFormat="1" ht="27">
+      <c r="B186" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" s="2" customFormat="1" ht="27">
-      <c r="B182" s="5" t="s">
+      <c r="C186" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C182" s="14" t="s">
+    </row>
+    <row r="187" spans="1:5" ht="27">
+      <c r="B187" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="27">
-      <c r="B183" s="1" t="s">
+      <c r="C187" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="4" t="s">
+    </row>
+    <row r="188" spans="1:5" ht="40.5">
+      <c r="B188" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="40.5">
-      <c r="B184" s="1" t="s">
+      <c r="C188" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="B185" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="B186" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="B187" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="27">
-      <c r="B188" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="B189" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>115</v>
@@ -3217,428 +3359,566 @@
     </row>
     <row r="190" spans="1:5">
       <c r="B190" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="B191" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="27">
       <c r="B192" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="27">
+        <v>175</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="B193" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="B194" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="B195" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B196" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="27">
       <c r="B197" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>22</v>
+        <v>181</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="B198" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="B199" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="B200" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>187</v>
+      <c r="A200" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="201" spans="1:5">
+      <c r="A201" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B201" s="1" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>187</v>
+        <v>3</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="B202" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>187</v>
+      <c r="B202" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="B203" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>187</v>
+      <c r="B203" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="B204" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>187</v>
+      <c r="B204" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="B205" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>187</v>
+      <c r="B205" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="B206" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>187</v>
+      <c r="B206" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="B207" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>187</v>
+      <c r="B207" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="B208" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>187</v>
+      <c r="B208" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="B209" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>187</v>
+      <c r="B209" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="B210" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="B211" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="B212" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="B213" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="B214" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="B215" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="B216" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="B217" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="B218" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="B220" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="B221" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="B222" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="14.25">
+      <c r="A224" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="14.25">
-      <c r="A212" s="15" t="s">
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+    </row>
+    <row r="225" spans="1:5" ht="14.25">
+      <c r="A225" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B212" s="15"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-    </row>
-    <row r="213" spans="1:5" ht="14.25">
-      <c r="A213" s="15" t="s">
+      <c r="E225" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="28.5">
+      <c r="A226" s="14"/>
+      <c r="B226" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+    </row>
+    <row r="227" spans="1:5" ht="14.25">
+      <c r="A227" s="14"/>
+      <c r="B227" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+    </row>
+    <row r="228" spans="1:5" ht="14.25">
+      <c r="A228" s="14"/>
+      <c r="B228" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+    </row>
+    <row r="229" spans="1:5" ht="14.25">
+      <c r="A229" s="14"/>
+      <c r="B229" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+    </row>
+    <row r="230" spans="1:5" ht="14.25">
+      <c r="A230" s="14"/>
+      <c r="B230" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+    </row>
+    <row r="231" spans="1:5" ht="14.25">
+      <c r="A231" s="14"/>
+      <c r="B231" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+    </row>
+    <row r="232" spans="1:5" ht="14.25">
+      <c r="A232" s="14"/>
+      <c r="B232" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="B235" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C213" s="15" t="s">
+      <c r="C235" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D213" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E213" s="15" t="s">
+      <c r="D235" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="28.5">
-      <c r="A214" s="15"/>
-      <c r="B214" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-    </row>
-    <row r="215" spans="1:5" ht="14.25">
-      <c r="A215" s="15"/>
-      <c r="B215" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15"/>
-    </row>
-    <row r="216" spans="1:5" ht="14.25">
-      <c r="A216" s="15"/>
-      <c r="B216" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C216" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
-    </row>
-    <row r="217" spans="1:5" ht="14.25">
-      <c r="A217" s="15"/>
-      <c r="B217" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C217" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
-    </row>
-    <row r="218" spans="1:5" ht="14.25">
-      <c r="A218" s="15"/>
-      <c r="B218" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15"/>
-    </row>
-    <row r="219" spans="1:5" ht="14.25">
-      <c r="A219" s="15"/>
-      <c r="B219" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
-    </row>
-    <row r="220" spans="1:5" ht="14.25">
-      <c r="A220" s="15"/>
-      <c r="B220" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C220" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="1" t="s">
+    <row r="236" spans="1:5">
+      <c r="B236" s="1" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="B224" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3">
-      <c r="B225" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3">
-      <c r="B226" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3">
-      <c r="B227" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3">
-      <c r="B228" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3">
-      <c r="B229" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3">
-      <c r="B230" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3">
-      <c r="B231" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3">
-      <c r="B232" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3">
-      <c r="B233" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="B234" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3">
-      <c r="B235" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3">
-      <c r="B236" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="2:3">
+    <row r="237" spans="1:5">
       <c r="B237" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="2:3">
+    <row r="238" spans="1:5">
       <c r="B238" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="2:3">
+    <row r="239" spans="1:5">
       <c r="B239" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="B240" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E73:E81 E63:E67 E85:E102 E104:E149 E31:E59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E156 E25:E30 WVM181:WVM196 WLQ181:WLQ196 WBU181:WBU196 VRY181:VRY196 VIC181:VIC196 UYG181:UYG196 UOK181:UOK196 UEO181:UEO196 TUS181:TUS196 TKW181:TKW196 TBA181:TBA196 SRE181:SRE196 SHI181:SHI196 RXM181:RXM196 RNQ181:RNQ196 RDU181:RDU196 QTY181:QTY196 QKC181:QKC196 QAG181:QAG196 PQK181:PQK196 PGO181:PGO196 OWS181:OWS196 OMW181:OMW196 ODA181:ODA196 NTE181:NTE196 NJI181:NJI196 MZM181:MZM196 MPQ181:MPQ196 MFU181:MFU196 LVY181:LVY196 LMC181:LMC196 LCG181:LCG196 KSK181:KSK196 KIO181:KIO196 JYS181:JYS196 JOW181:JOW196 JFA181:JFA196 IVE181:IVE196 ILI181:ILI196 IBM181:IBM196 HRQ181:HRQ196 HHU181:HHU196 GXY181:GXY196 GOC181:GOC196 GEG181:GEG196 FUK181:FUK196 FKO181:FKO196 FAS181:FAS196 EQW181:EQW196 EHA181:EHA196 DXE181:DXE196 DNI181:DNI196 DDM181:DDM196 CTQ181:CTQ196 CJU181:CJU196 BZY181:BZY196 BQC181:BQC196 BGG181:BGG196 AWK181:AWK196 AMO181:AMO196 ACS181:ACS196 SW181:SW196 JA181:JA196 E181:E196 WVM198 WLQ198 WBU198 VRY198 VIC198 UYG198 UOK198 UEO198 TUS198 TKW198 TBA198 SRE198 SHI198 RXM198 RNQ198 RDU198 QTY198 QKC198 QAG198 PQK198 PGO198 OWS198 OMW198 ODA198 NTE198 NJI198 MZM198 MPQ198 MFU198 LVY198 LMC198 LCG198 KSK198 KIO198 JYS198 JOW198 JFA198 IVE198 ILI198 IBM198 HRQ198 HHU198 GXY198 GOC198 GEG198 FUK198 FKO198 FAS198 EQW198 EHA198 DXE198 DNI198 DDM198 CTQ198 CJU198 BZY198 BQC198 BGG198 AWK198 AMO198 ACS198 SW198 JA198 E198 WVL197 WLP197 WBT197 VRX197 VIB197 UYF197 UOJ197 UEN197 TUR197 TKV197 TAZ197 SRD197 SHH197 RXL197 RNP197 RDT197 QTX197 QKB197 QAF197 PQJ197 PGN197 OWR197 OMV197 OCZ197 NTD197 NJH197 MZL197 MPP197 MFT197 LVX197 LMB197 LCF197 KSJ197 KIN197 JYR197 JOV197 JEZ197 IVD197 ILH197 IBL197 HRP197 HHT197 GXX197 GOB197 GEF197 FUJ197 FKN197 FAR197 EQV197 EGZ197 DXD197 DNH197 DDL197 CTP197 CJT197 BZX197 BQB197 BGF197 AWJ197 AMN197 ACR197 SV197 IZ197 D197">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E73:E81 E173:E179 E63:E67 E85:E102 E104:E153 E31:E59 E202:E222">
       <formula1>$F$1:$F$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 D193 IZ193 SV193 ACR193 AMN193 AWJ193 BGF193 BQB193 BZX193 CJT193 CTP193 DDL193 DNH193 DXD193 EGZ193 EQV193 FAR193 FKN193 FUJ193 GEF193 GOB193 GXX193 HHT193 HRP193 IBL193 ILH193 IVD193 JEZ193 JOV193 JYR193 KIN193 KSJ193 LCF193 LMB193 LVX193 MFT193 MPP193 MZL193 NJH193 NTD193 OCZ193 OMV193 OWR193 PGN193 PQJ193 QAF193 QKB193 QTX193 RDT193 RNP193 RXL193 SHH193 SRD193 TAZ193 TKV193 TUR193 UEN193 UOJ193 UYF193 VIB193 VRX193 WBT193 WLP193 WVL193 E194 JA194 SW194 ACS194 AMO194 AWK194 BGG194 BQC194 BZY194 CJU194 CTQ194 DDM194 DNI194 DXE194 EHA194 EQW194 FAS194 FKO194 FUK194 GEG194 GOC194 GXY194 HHU194 HRQ194 IBM194 ILI194 IVE194 JFA194 JOW194 JYS194 KIO194 KSK194 LCG194 LMC194 LVY194 MFU194 MPQ194 MZM194 NJI194 NTE194 ODA194 OMW194 OWS194 PGO194 PQK194 QAG194 QKC194 QTY194 RDU194 RNQ194 RXM194 SHI194 SRE194 TBA194 TKW194 TUS194 UEO194 UOK194 UYG194 VIC194 VRY194 WBU194 WLQ194 WVM194 E177:E192 JA177:JA192 SW177:SW192 ACS177:ACS192 AMO177:AMO192 AWK177:AWK192 BGG177:BGG192 BQC177:BQC192 BZY177:BZY192 CJU177:CJU192 CTQ177:CTQ192 DDM177:DDM192 DNI177:DNI192 DXE177:DXE192 EHA177:EHA192 EQW177:EQW192 FAS177:FAS192 FKO177:FKO192 FUK177:FUK192 GEG177:GEG192 GOC177:GOC192 GXY177:GXY192 HHU177:HHU192 HRQ177:HRQ192 IBM177:IBM192 ILI177:ILI192 IVE177:IVE192 JFA177:JFA192 JOW177:JOW192 JYS177:JYS192 KIO177:KIO192 KSK177:KSK192 LCG177:LCG192 LMC177:LMC192 LVY177:LVY192 MFU177:MFU192 MPQ177:MPQ192 MZM177:MZM192 NJI177:NJI192 NTE177:NTE192 ODA177:ODA192 OMW177:OMW192 OWS177:OWS192 PGO177:PGO192 PQK177:PQK192 QAG177:QAG192 QKC177:QKC192 QTY177:QTY192 RDU177:RDU192 RNQ177:RNQ192 RXM177:RXM192 SHI177:SHI192 SRE177:SRE192 TBA177:TBA192 TKW177:TKW192 TUS177:TUS192 UEO177:UEO192 UOK177:UOK192 UYG177:UYG192 VIC177:VIC192 VRY177:VRY192 WBU177:WBU192 WLQ177:WLQ192 WVM177:WVM192 E25:E30">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/汽车维修保养管理系统功能列表.xlsx
+++ b/documents/汽车维修保养管理系统功能列表.xlsx
@@ -1053,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,8 +1129,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1432,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3240,17 +3246,17 @@
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="16" customFormat="1" ht="27">
-      <c r="A177" s="24"/>
-      <c r="B177" s="24" t="s">
+    <row r="177" spans="1:5" s="27" customFormat="1" ht="27">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24" t="s">
-        <v>163</v>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:5">

--- a/documents/汽车维修保养管理系统功能列表.xlsx
+++ b/documents/汽车维修保养管理系统功能列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="288">
   <si>
     <t>角色分析</t>
   </si>
@@ -942,6 +942,26 @@
   </si>
   <si>
     <t>汽修公司管理员，汽修公司财务人员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向公司的添加</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在前台，有意向入驻的汽修公司填写负责人信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向公司的分页查看</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向公司状态修改</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1436,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1642,41 +1662,46 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" s="16" customFormat="1">
-      <c r="B26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>163</v>
-      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1684,24 +1709,25 @@
       <c r="E28" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>245</v>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" s="16" customFormat="1">
+      <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>245</v>
@@ -1709,7 +1735,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1720,10 +1746,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>245</v>
@@ -1731,7 +1757,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1740,23 +1766,23 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="16" customFormat="1">
-      <c r="B34" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>163</v>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>245</v>
@@ -1764,7 +1790,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1773,20 +1799,20 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>245</v>
+    <row r="37" spans="2:5" s="16" customFormat="1">
+      <c r="B37" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1795,53 +1821,53 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="16" customFormat="1">
-      <c r="B39" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>163</v>
+    <row r="39" spans="2:5">
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="16" customFormat="1">
-      <c r="B41" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="16" customFormat="1">
+      <c r="B42" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1852,10 +1878,10 @@
     </row>
     <row r="44" spans="2:5" s="16" customFormat="1">
       <c r="B44" s="16" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>163</v>
@@ -1863,10 +1889,10 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>245</v>
@@ -1874,7 +1900,7 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1883,20 +1909,20 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>245</v>
+    <row r="47" spans="2:5" s="16" customFormat="1">
+      <c r="B47" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1905,23 +1931,23 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="16" customFormat="1">
-      <c r="B49" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>163</v>
+    <row r="49" spans="1:5">
+      <c r="B49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>245</v>
@@ -1929,29 +1955,29 @@
     </row>
     <row r="51" spans="1:5">
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>245</v>
+    <row r="52" spans="1:5" s="16" customFormat="1">
+      <c r="B52" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
@@ -1960,23 +1986,23 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="16" customFormat="1">
-      <c r="B54" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>163</v>
+    <row r="54" spans="1:5">
+      <c r="B54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>245</v>
@@ -1984,7 +2010,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>6</v>
@@ -1993,20 +2019,20 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>245</v>
+    <row r="57" spans="1:5" s="16" customFormat="1">
+      <c r="B57" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>6</v>
@@ -2015,75 +2041,75 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="16" customFormat="1">
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="1:5">
+      <c r="B59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="16" customFormat="1">
+      <c r="B62" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E62" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="17" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E65" s="16" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="16" customFormat="1">
-      <c r="B65" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="B66" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>261</v>
@@ -2092,82 +2118,76 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="16" customFormat="1">
-      <c r="B67" s="16" t="s">
+    <row r="67" spans="1:5">
+      <c r="B67" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="16" customFormat="1">
+      <c r="B68" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="16" customFormat="1">
+      <c r="B70" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E70" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E75" s="16" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="16"/>
-      <c r="B74" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="16"/>
-      <c r="B75" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="16"/>
-      <c r="B76" s="18" t="s">
-        <v>58</v>
+      <c r="B76" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>6</v>
@@ -2180,10 +2200,10 @@
     <row r="77" spans="1:5">
       <c r="A77" s="16"/>
       <c r="B77" s="18" t="s">
-        <v>262</v>
+        <v>56</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16" t="s">
@@ -2193,10 +2213,10 @@
     <row r="78" spans="1:5">
       <c r="A78" s="16"/>
       <c r="B78" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="s">
@@ -2204,90 +2224,96 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="16"/>
+      <c r="B80" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="16"/>
+      <c r="B81" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="B82" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="16"/>
-    </row>
-    <row r="80" spans="1:5" ht="40.5">
-      <c r="B80" s="3" t="s">
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" spans="1:5" ht="40.5">
+      <c r="B83" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="16"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="B81" s="3" t="s">
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="B84" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1" t="s">
+      <c r="E84" s="16"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="B85" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="B86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="B87" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>6</v>
@@ -2297,11 +2323,11 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="B89" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>264</v>
+      <c r="B89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>245</v>
@@ -2309,7 +2335,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="B90" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>6</v>
@@ -2320,7 +2346,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="B91" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>6</v>
@@ -2330,11 +2356,11 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="B92" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>6</v>
+      <c r="B92" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>245</v>
@@ -2342,7 +2368,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="B93" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>6</v>
@@ -2352,59 +2378,53 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="B96" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C97" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16" t="s">
-        <v>163</v>
+      <c r="E97" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="16"/>
       <c r="B98" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>76</v>
@@ -2414,39 +2434,39 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="27">
+    <row r="99" spans="1:5">
       <c r="A99" s="16"/>
       <c r="B99" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="27">
+    <row r="100" spans="1:5">
       <c r="A100" s="16"/>
       <c r="B100" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="27">
+    <row r="101" spans="1:5">
       <c r="A101" s="16"/>
       <c r="B101" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16" t="s">
@@ -2456,7 +2476,7 @@
     <row r="102" spans="1:5" ht="27">
       <c r="A102" s="16"/>
       <c r="B102" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>81</v>
@@ -2466,75 +2486,75 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="6" t="s">
+    <row r="103" spans="1:5" ht="27">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="27">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="27">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="6" t="s">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B108" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="6"/>
       <c r="B109" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>6</v>
@@ -2546,11 +2566,11 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="6"/>
-      <c r="B110" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>249</v>
+      <c r="B110" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
@@ -2560,40 +2580,46 @@
     <row r="111" spans="1:5">
       <c r="A111" s="6"/>
       <c r="B111" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
+      <c r="E111" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="6"/>
       <c r="B112" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
+      <c r="E112" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="6"/>
-      <c r="B113" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>76</v>
+      <c r="B113" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
+      <c r="E113" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="6"/>
       <c r="B114" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>76</v>
@@ -2604,7 +2630,7 @@
     <row r="115" spans="1:5">
       <c r="A115" s="6"/>
       <c r="B115" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>76</v>
@@ -2615,7 +2641,7 @@
     <row r="116" spans="1:5">
       <c r="A116" s="6"/>
       <c r="B116" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>76</v>
@@ -2626,7 +2652,7 @@
     <row r="117" spans="1:5">
       <c r="A117" s="6"/>
       <c r="B117" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>76</v>
@@ -2637,7 +2663,7 @@
     <row r="118" spans="1:5">
       <c r="A118" s="6"/>
       <c r="B118" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>76</v>
@@ -2648,10 +2674,10 @@
     <row r="119" spans="1:5">
       <c r="A119" s="6"/>
       <c r="B119" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -2659,10 +2685,10 @@
     <row r="120" spans="1:5">
       <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -2670,10 +2696,10 @@
     <row r="121" spans="1:5">
       <c r="A121" s="6"/>
       <c r="B121" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -2681,7 +2707,7 @@
     <row r="122" spans="1:5">
       <c r="A122" s="6"/>
       <c r="B122" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>100</v>
@@ -2689,75 +2715,75 @@
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="40.5">
+    <row r="123" spans="1:5">
       <c r="A123" s="6"/>
       <c r="B123" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
     </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="1:5" ht="40.5">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="8" t="s">
+    <row r="129" spans="1:6">
+      <c r="A129" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B129" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D129" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="B127" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="B128" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="B129" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="B130" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>108</v>
@@ -2766,125 +2792,119 @@
         <v>245</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="16" customFormat="1">
-      <c r="B131" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>163</v>
+    <row r="131" spans="1:6">
+      <c r="B131" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>13</v>
+        <v>108</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="B133" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="B134" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>115</v>
+      <c r="E133" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="16" customFormat="1">
+      <c r="B134" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="B135" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="B136" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="B137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="B138" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1" t="s">
+    <row r="139" spans="1:6" customFormat="1">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="8" t="s">
+    <row r="141" spans="1:6">
+      <c r="A141" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B141" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="40.5">
-      <c r="A139" s="6"/>
-      <c r="B139" s="9" t="s">
+    <row r="142" spans="1:6" ht="40.5">
+      <c r="A142" s="6"/>
+      <c r="B142" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C142" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="6"/>
-      <c r="B140" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="6"/>
-      <c r="B141" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="6"/>
-      <c r="B142" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>270</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
@@ -2893,24 +2913,24 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="6"/>
-      <c r="B143" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>270</v>
+      <c r="B143" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="40.5">
+    <row r="144" spans="1:6">
       <c r="A144" s="6"/>
       <c r="B144" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
@@ -2919,11 +2939,11 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="6"/>
-      <c r="B145" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>108</v>
+      <c r="B145" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
@@ -2932,37 +2952,37 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="6"/>
-      <c r="B146" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>108</v>
+      <c r="B146" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="27">
+    <row r="147" spans="1:6" ht="40.5">
       <c r="A147" s="6"/>
       <c r="B147" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="27">
+    <row r="148" spans="1:6">
       <c r="A148" s="6"/>
       <c r="B148" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
@@ -2972,9 +2992,9 @@
     <row r="149" spans="1:6">
       <c r="A149" s="6"/>
       <c r="B149" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D149" s="6"/>
@@ -2982,261 +3002,261 @@
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="16" customFormat="1">
-      <c r="A150" s="22"/>
-      <c r="B150" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22" t="s">
-        <v>163</v>
+    <row r="150" spans="1:6" ht="27">
+      <c r="A150" s="6"/>
+      <c r="B150" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="27">
       <c r="A151" s="6"/>
       <c r="B151" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="6"/>
-      <c r="B152" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>273</v>
+      <c r="B152" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="6"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-    </row>
-    <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="1" t="s">
+    <row r="153" spans="1:6" s="16" customFormat="1">
+      <c r="A153" s="22"/>
+      <c r="B153" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="27">
+      <c r="A154" s="6"/>
+      <c r="B154" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="6"/>
+      <c r="B155" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="6"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="1:6" customFormat="1">
+      <c r="A157" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F154" s="10"/>
-    </row>
-    <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" t="s">
+      <c r="F157" s="10"/>
+    </row>
+    <row r="158" spans="1:6" customFormat="1">
+      <c r="A158" t="s">
         <v>1</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B158" t="s">
         <v>20</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C158" t="s">
         <v>3</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D158" t="s">
         <v>21</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E158" t="s">
         <v>22</v>
       </c>
-      <c r="F155" s="10"/>
-    </row>
-    <row r="156" spans="1:6" customFormat="1">
-      <c r="B156" t="s">
-        <v>135</v>
-      </c>
-      <c r="C156" t="s">
-        <v>136</v>
-      </c>
-      <c r="F156" s="10"/>
-    </row>
-    <row r="157" spans="1:6" customFormat="1">
-      <c r="B157" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C157" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" customFormat="1">
-      <c r="B158" t="s">
-        <v>139</v>
-      </c>
-      <c r="C158" t="s">
-        <v>8</v>
-      </c>
+      <c r="F158" s="10"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
       <c r="B159" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" t="s">
+        <v>136</v>
+      </c>
+      <c r="F159" s="10"/>
+    </row>
+    <row r="160" spans="1:6" customFormat="1">
+      <c r="B160" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" customFormat="1">
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" customFormat="1">
+      <c r="B162" t="s">
         <v>140</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C162" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="1" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="1" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="40.5">
-      <c r="B163" s="1" t="s">
+    <row r="166" spans="1:5" ht="40.5">
+      <c r="B166" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E163" s="8"/>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="B164" s="1" t="s">
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E164" s="8"/>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="B165" s="1" t="s">
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E165" s="8"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="1" t="s">
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="1" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="B169" s="1" t="s">
+    <row r="172" spans="1:5">
+      <c r="B172" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="12" t="s">
+      <c r="E172" s="8"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="12" t="s">
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B175" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C175" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="D175" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="12"/>
       <c r="B176" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>108</v>
@@ -3246,250 +3266,256 @@
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="27" customFormat="1" ht="27">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C177" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="12"/>
       <c r="B178" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="16" customFormat="1">
-      <c r="A179" s="24"/>
-      <c r="B179" s="24" t="s">
+    <row r="179" spans="1:5">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="27" customFormat="1" ht="27">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="16" customFormat="1">
+      <c r="A182" s="24"/>
+      <c r="B182" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C182" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24" t="s">
+      <c r="D182" s="24"/>
+      <c r="E182" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="1" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="1" t="s">
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="1" t="s">
+    <row r="186" spans="1:5">
+      <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="B184" s="1" t="s">
+    <row r="187" spans="1:5">
+      <c r="B187" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="2" customFormat="1" ht="27">
-      <c r="B185" s="5" t="s">
+    <row r="188" spans="1:5" s="2" customFormat="1" ht="27">
+      <c r="B188" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C188" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="2" customFormat="1" ht="27">
-      <c r="B186" s="5" t="s">
+    <row r="189" spans="1:5" s="2" customFormat="1" ht="27">
+      <c r="B189" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C189" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="27">
-      <c r="B187" s="1" t="s">
+    <row r="190" spans="1:5" ht="27">
+      <c r="B190" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C190" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="40.5">
-      <c r="B188" s="1" t="s">
+    <row r="191" spans="1:5" ht="40.5">
+      <c r="B191" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C191" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="B189" s="1" t="s">
+    <row r="192" spans="1:5">
+      <c r="B192" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="B190" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="B191" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="27">
-      <c r="B192" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="B193" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="B194" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="27">
       <c r="B195" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>108</v>
+        <v>175</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="B196" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="B197" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="27">
-      <c r="B197" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="B198" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="B199" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="27">
+      <c r="B200" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="B201" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="1" t="s">
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="B202" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="B203" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="B204" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="B205" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>282</v>
@@ -3500,7 +3526,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="B206" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>282</v>
@@ -3511,7 +3537,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="B207" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C207" s="17" t="s">
         <v>282</v>
@@ -3522,7 +3548,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="B208" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>282</v>
@@ -3531,9 +3557,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="2:5">
       <c r="B209" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C209" s="17" t="s">
         <v>282</v>
@@ -3542,42 +3568,42 @@
         <v>245</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="B210" s="1" t="s">
+    <row r="210" spans="2:5">
+      <c r="B210" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="B211" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="B212" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="B213" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>186</v>
@@ -3586,9 +3612,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="2:5">
       <c r="B214" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>186</v>
@@ -3597,9 +3623,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="2:5">
       <c r="B215" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>186</v>
@@ -3608,128 +3634,128 @@
         <v>245</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="2:5">
       <c r="B216" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="E216" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5">
       <c r="B217" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="B218" s="5" t="s">
-        <v>194</v>
+      <c r="E217" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="E218" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5">
       <c r="B219" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="2:5">
       <c r="B220" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="B221" s="1" t="s">
-        <v>197</v>
+    <row r="221" spans="2:5">
+      <c r="B221" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="2:5">
       <c r="B222" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="14.25">
-      <c r="A224" s="14" t="s">
+    <row r="223" spans="2:5">
+      <c r="B223" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5">
+      <c r="B224" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="B225" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="14.25">
+      <c r="A227" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B224" s="14"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-    </row>
-    <row r="225" spans="1:5" ht="14.25">
-      <c r="A225" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B225" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C225" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D225" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E225" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="28.5">
-      <c r="A226" s="14"/>
-      <c r="B226" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C226" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
-    </row>
-    <row r="227" spans="1:5" ht="14.25">
-      <c r="A227" s="14"/>
-      <c r="B227" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C227" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
       <c r="D227" s="14"/>
       <c r="E227" s="14"/>
     </row>
     <row r="228" spans="1:5" ht="14.25">
-      <c r="A228" s="14"/>
+      <c r="A228" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="B228" s="14" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
-    </row>
-    <row r="229" spans="1:5" ht="14.25">
+        <v>3</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E228" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="28.5">
       <c r="A229" s="14"/>
       <c r="B229" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C229" s="14" t="s">
-        <v>6</v>
+        <v>201</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="D229" s="14"/>
       <c r="E229" s="14"/>
@@ -3737,7 +3763,7 @@
     <row r="230" spans="1:5" ht="14.25">
       <c r="A230" s="14"/>
       <c r="B230" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C230" s="14" t="s">
         <v>6</v>
@@ -3748,7 +3774,7 @@
     <row r="231" spans="1:5" ht="14.25">
       <c r="A231" s="14"/>
       <c r="B231" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C231" s="14" t="s">
         <v>6</v>
@@ -3759,7 +3785,7 @@
     <row r="232" spans="1:5" ht="14.25">
       <c r="A232" s="14"/>
       <c r="B232" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C232" s="14" t="s">
         <v>6</v>
@@ -3767,55 +3793,64 @@
       <c r="D232" s="14"/>
       <c r="E232" s="14"/>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="1" t="s">
+    <row r="233" spans="1:5" ht="14.25">
+      <c r="A233" s="14"/>
+      <c r="B233" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+    </row>
+    <row r="234" spans="1:5" ht="14.25">
+      <c r="A234" s="14"/>
+      <c r="B234" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+    </row>
+    <row r="235" spans="1:5" ht="14.25">
+      <c r="A235" s="14"/>
+      <c r="B235" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="1" t="s">
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="B236" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="B237" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="B238" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="B239" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>4</v>
@@ -3823,7 +3858,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="B240" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>4</v>
@@ -3831,7 +3866,7 @@
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>4</v>
@@ -3839,7 +3874,7 @@
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>4</v>
@@ -3847,7 +3882,7 @@
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>4</v>
@@ -3855,7 +3890,7 @@
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>4</v>
@@ -3863,7 +3898,7 @@
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>4</v>
@@ -3871,7 +3906,7 @@
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>4</v>
@@ -3879,7 +3914,7 @@
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>4</v>
@@ -3887,7 +3922,7 @@
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>4</v>
@@ -3895,7 +3930,7 @@
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>4</v>
@@ -3903,7 +3938,7 @@
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>4</v>
@@ -3911,19 +3946,43 @@
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E156 E25:E30 WVM181:WVM196 WLQ181:WLQ196 WBU181:WBU196 VRY181:VRY196 VIC181:VIC196 UYG181:UYG196 UOK181:UOK196 UEO181:UEO196 TUS181:TUS196 TKW181:TKW196 TBA181:TBA196 SRE181:SRE196 SHI181:SHI196 RXM181:RXM196 RNQ181:RNQ196 RDU181:RDU196 QTY181:QTY196 QKC181:QKC196 QAG181:QAG196 PQK181:PQK196 PGO181:PGO196 OWS181:OWS196 OMW181:OMW196 ODA181:ODA196 NTE181:NTE196 NJI181:NJI196 MZM181:MZM196 MPQ181:MPQ196 MFU181:MFU196 LVY181:LVY196 LMC181:LMC196 LCG181:LCG196 KSK181:KSK196 KIO181:KIO196 JYS181:JYS196 JOW181:JOW196 JFA181:JFA196 IVE181:IVE196 ILI181:ILI196 IBM181:IBM196 HRQ181:HRQ196 HHU181:HHU196 GXY181:GXY196 GOC181:GOC196 GEG181:GEG196 FUK181:FUK196 FKO181:FKO196 FAS181:FAS196 EQW181:EQW196 EHA181:EHA196 DXE181:DXE196 DNI181:DNI196 DDM181:DDM196 CTQ181:CTQ196 CJU181:CJU196 BZY181:BZY196 BQC181:BQC196 BGG181:BGG196 AWK181:AWK196 AMO181:AMO196 ACS181:ACS196 SW181:SW196 JA181:JA196 E181:E196 WVM198 WLQ198 WBU198 VRY198 VIC198 UYG198 UOK198 UEO198 TUS198 TKW198 TBA198 SRE198 SHI198 RXM198 RNQ198 RDU198 QTY198 QKC198 QAG198 PQK198 PGO198 OWS198 OMW198 ODA198 NTE198 NJI198 MZM198 MPQ198 MFU198 LVY198 LMC198 LCG198 KSK198 KIO198 JYS198 JOW198 JFA198 IVE198 ILI198 IBM198 HRQ198 HHU198 GXY198 GOC198 GEG198 FUK198 FKO198 FAS198 EQW198 EHA198 DXE198 DNI198 DDM198 CTQ198 CJU198 BZY198 BQC198 BGG198 AWK198 AMO198 ACS198 SW198 JA198 E198 WVL197 WLP197 WBT197 VRX197 VIB197 UYF197 UOJ197 UEN197 TUR197 TKV197 TAZ197 SRD197 SHH197 RXL197 RNP197 RDT197 QTX197 QKB197 QAF197 PQJ197 PGN197 OWR197 OMV197 OCZ197 NTD197 NJH197 MZL197 MPP197 MFT197 LVX197 LMB197 LCF197 KSJ197 KIN197 JYR197 JOV197 JEZ197 IVD197 ILH197 IBL197 HRP197 HHT197 GXX197 GOB197 GEF197 FUJ197 FKN197 FAR197 EQV197 EGZ197 DXD197 DNH197 DDL197 CTP197 CJT197 BZX197 BQB197 BGF197 AWJ197 AMN197 ACR197 SV197 IZ197 D197">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E159 E28:E33 WVM184:WVM199 WLQ184:WLQ199 WBU184:WBU199 VRY184:VRY199 VIC184:VIC199 UYG184:UYG199 UOK184:UOK199 UEO184:UEO199 TUS184:TUS199 TKW184:TKW199 TBA184:TBA199 SRE184:SRE199 SHI184:SHI199 RXM184:RXM199 RNQ184:RNQ199 RDU184:RDU199 QTY184:QTY199 QKC184:QKC199 QAG184:QAG199 PQK184:PQK199 PGO184:PGO199 OWS184:OWS199 OMW184:OMW199 ODA184:ODA199 NTE184:NTE199 NJI184:NJI199 MZM184:MZM199 MPQ184:MPQ199 MFU184:MFU199 LVY184:LVY199 LMC184:LMC199 LCG184:LCG199 KSK184:KSK199 KIO184:KIO199 JYS184:JYS199 JOW184:JOW199 JFA184:JFA199 IVE184:IVE199 ILI184:ILI199 IBM184:IBM199 HRQ184:HRQ199 HHU184:HHU199 GXY184:GXY199 GOC184:GOC199 GEG184:GEG199 FUK184:FUK199 FKO184:FKO199 FAS184:FAS199 EQW184:EQW199 EHA184:EHA199 DXE184:DXE199 DNI184:DNI199 DDM184:DDM199 CTQ184:CTQ199 CJU184:CJU199 BZY184:BZY199 BQC184:BQC199 BGG184:BGG199 AWK184:AWK199 AMO184:AMO199 ACS184:ACS199 SW184:SW199 JA184:JA199 E184:E199 WVM201 WLQ201 WBU201 VRY201 VIC201 UYG201 UOK201 UEO201 TUS201 TKW201 TBA201 SRE201 SHI201 RXM201 RNQ201 RDU201 QTY201 QKC201 QAG201 PQK201 PGO201 OWS201 OMW201 ODA201 NTE201 NJI201 MZM201 MPQ201 MFU201 LVY201 LMC201 LCG201 KSK201 KIO201 JYS201 JOW201 JFA201 IVE201 ILI201 IBM201 HRQ201 HHU201 GXY201 GOC201 GEG201 FUK201 FKO201 FAS201 EQW201 EHA201 DXE201 DNI201 DDM201 CTQ201 CJU201 BZY201 BQC201 BGG201 AWK201 AMO201 ACS201 SW201 JA201 E201 WVL200 WLP200 WBT200 VRX200 VIB200 UYF200 UOJ200 UEN200 TUR200 TKV200 TAZ200 SRD200 SHH200 RXL200 RNP200 RDT200 QTX200 QKB200 QAF200 PQJ200 PGN200 OWR200 OMV200 OCZ200 NTD200 NJH200 MZL200 MPP200 MFT200 LVX200 LMB200 LCF200 KSJ200 KIN200 JYR200 JOV200 JEZ200 IVD200 ILH200 IBL200 HRP200 HHT200 GXX200 GOB200 GEF200 FUJ200 FKN200 FAR200 EQV200 EGZ200 DXD200 DNH200 DDL200 CTP200 CJT200 BZX200 BQB200 BGF200 AWJ200 AMN200 ACR200 SV200 IZ200 D200">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E73:E81 E173:E179 E63:E67 E85:E102 E104:E153 E31:E59 E202:E222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E76:E84 E176:E182 E66:E70 E88:E105 E107:E156 E34:E62 E205:E225 E25:E27">
       <formula1>$F$1:$F$2</formula1>
     </dataValidation>
   </dataValidations>
